--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.44083508782539</v>
+        <v>3.15163</v>
       </c>
       <c r="H2">
-        <v>1.44083508782539</v>
+        <v>9.454890000000001</v>
       </c>
       <c r="I2">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="J2">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N2">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q2">
-        <v>1.584849150692967</v>
+        <v>4.119516583866667</v>
       </c>
       <c r="R2">
-        <v>1.584849150692967</v>
+        <v>37.07564925480001</v>
       </c>
       <c r="S2">
-        <v>3.135786665418857E-06</v>
+        <v>7.903464167814538E-06</v>
       </c>
       <c r="T2">
-        <v>3.135786665418857E-06</v>
+        <v>7.903464167814538E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.44083508782539</v>
+        <v>3.15163</v>
       </c>
       <c r="H3">
-        <v>1.44083508782539</v>
+        <v>9.454890000000001</v>
       </c>
       <c r="I3">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="J3">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q3">
-        <v>115.3564697269506</v>
+        <v>252.84341531631</v>
       </c>
       <c r="R3">
-        <v>115.3564697269506</v>
+        <v>2275.59073784679</v>
       </c>
       <c r="S3">
-        <v>0.0002282446120385652</v>
+        <v>0.0004850906246733983</v>
       </c>
       <c r="T3">
-        <v>0.0002282446120385652</v>
+        <v>0.0004850906246733983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.44083508782539</v>
+        <v>3.15163</v>
       </c>
       <c r="H4">
-        <v>1.44083508782539</v>
+        <v>9.454890000000001</v>
       </c>
       <c r="I4">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="J4">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N4">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q4">
-        <v>29.27302380895823</v>
+        <v>70.95535238962668</v>
       </c>
       <c r="R4">
-        <v>29.27302380895823</v>
+        <v>638.5981715066401</v>
       </c>
       <c r="S4">
-        <v>5.791968129994172E-05</v>
+        <v>0.0001361307992598723</v>
       </c>
       <c r="T4">
-        <v>5.791968129994172E-05</v>
+        <v>0.0001361307992598723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4950.09967254897</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H5">
-        <v>4950.09967254897</v>
+        <v>14915.263184</v>
       </c>
       <c r="I5">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819714</v>
       </c>
       <c r="J5">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819713</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N5">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q5">
-        <v>5444.871053026089</v>
+        <v>6498.613314298097</v>
       </c>
       <c r="R5">
-        <v>5444.871053026089</v>
+        <v>58487.51982868288</v>
       </c>
       <c r="S5">
-        <v>0.01077323607457457</v>
+        <v>0.01246786034827136</v>
       </c>
       <c r="T5">
-        <v>0.01077323607457457</v>
+        <v>0.01246786034827136</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4950.09967254897</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H6">
-        <v>4950.09967254897</v>
+        <v>14915.263184</v>
       </c>
       <c r="I6">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819714</v>
       </c>
       <c r="J6">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819713</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q6">
-        <v>396316.0169035139</v>
+        <v>398865.1463723194</v>
       </c>
       <c r="R6">
-        <v>396316.0169035139</v>
+        <v>3589786.317350875</v>
       </c>
       <c r="S6">
-        <v>0.7841519052804251</v>
+        <v>0.7652393983530955</v>
       </c>
       <c r="T6">
-        <v>0.7841519052804251</v>
+        <v>0.7652393983530954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4950.09967254897</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H7">
-        <v>4950.09967254897</v>
+        <v>14915.263184</v>
       </c>
       <c r="I7">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819714</v>
       </c>
       <c r="J7">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819713</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N7">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O7">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P7">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q7">
-        <v>100569.7229305696</v>
+        <v>111933.3757669042</v>
       </c>
       <c r="R7">
-        <v>100569.7229305696</v>
+        <v>1007400.381902138</v>
       </c>
       <c r="S7">
-        <v>0.1989875162394209</v>
+        <v>0.2147488440806045</v>
       </c>
       <c r="T7">
-        <v>0.1989875162394209</v>
+        <v>0.2147488440806045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.8766695925988</v>
+        <v>34.63986933333333</v>
       </c>
       <c r="H8">
-        <v>28.8766695925988</v>
+        <v>103.919608</v>
       </c>
       <c r="I8">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927541</v>
       </c>
       <c r="J8">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927542</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N8">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O8">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P8">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q8">
-        <v>31.76294474320697</v>
+        <v>45.27800413806222</v>
       </c>
       <c r="R8">
-        <v>31.76294474320697</v>
+        <v>407.50203724256</v>
       </c>
       <c r="S8">
-        <v>6.284624535819959E-05</v>
+        <v>8.686773702933961E-05</v>
       </c>
       <c r="T8">
-        <v>6.284624535819959E-05</v>
+        <v>8.686773702933963E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.8766695925988</v>
+        <v>34.63986933333333</v>
       </c>
       <c r="H9">
-        <v>28.8766695925988</v>
+        <v>103.919608</v>
       </c>
       <c r="I9">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927541</v>
       </c>
       <c r="J9">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927542</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P9">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q9">
-        <v>2311.930553205312</v>
+        <v>2779.026366785031</v>
       </c>
       <c r="R9">
-        <v>2311.930553205312</v>
+        <v>25011.23730106528</v>
       </c>
       <c r="S9">
-        <v>0.004574391825837656</v>
+        <v>0.005331677847181159</v>
       </c>
       <c r="T9">
-        <v>0.004574391825837656</v>
+        <v>0.005331677847181159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.8766695925988</v>
+        <v>34.63986933333333</v>
       </c>
       <c r="H10">
-        <v>28.8766695925988</v>
+        <v>103.919608</v>
       </c>
       <c r="I10">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927541</v>
       </c>
       <c r="J10">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927542</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N10">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O10">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P10">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q10">
-        <v>586.6788251134018</v>
+        <v>779.8771224024675</v>
       </c>
       <c r="R10">
-        <v>586.6788251134018</v>
+        <v>7018.894101622209</v>
       </c>
       <c r="S10">
-        <v>0.001160804254379547</v>
+        <v>0.001496226745717043</v>
       </c>
       <c r="T10">
-        <v>0.001160804254379547</v>
+        <v>0.001496226745717043</v>
       </c>
     </row>
   </sheetData>
